--- a/Mobility_data/Other_input/Table_Regressions_to_Run.xlsx
+++ b/Mobility_data/Other_input/Table_Regressions_to_Run.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Independant_variable</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>Quantile Regression Results for emissions from flying, when also controlling for frequency of different transportation modes</t>
+  </si>
+  <si>
+    <t>P_ZUF_RAD,P_ZUF_OPNV,P_ZUF_AUTO</t>
+  </si>
+  <si>
+    <t>total_emissions_control_satisfaction</t>
+  </si>
+  <si>
+    <t>Regression for total emissions, when adding a control variables for satisfaction with transportation modes: OLS (1) and Quantile Regression at 50th (2), 75th (3) and 90th (4) percentile.</t>
   </si>
 </sst>
 </file>
@@ -411,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,6 +527,23 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Mobility_data/Other_input/Table_Regressions_to_Run.xlsx
+++ b/Mobility_data/Other_input/Table_Regressions_to_Run.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Independant_variable</t>
   </si>
@@ -80,9 +80,6 @@
     <t>plane_emissions</t>
   </si>
   <si>
-    <t>Quantile Regression Results for emissions from flying (only OLS and 90th percentile, because 50th and 75th percentile is 0)</t>
-  </si>
-  <si>
     <t>plane_emissions_control_frequency</t>
   </si>
   <si>
@@ -96,6 +93,33 @@
   </si>
   <si>
     <t>Regression for total emissions, when adding a control variables for satisfaction with transportation modes: OLS (1) and Quantile Regression at 50th (2), 75th (3) and 90th (4) percentile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression for emissions from flying: OLS (1) and Quantile Regression at 90th (2), 95th (3) and 99th (4) percentile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression for total emissions, including business travel: OLS (1) and Quantile Regression at 50th (2), 75th (3) and 90th (4) percentile. </t>
+  </si>
+  <si>
+    <t>total_emissions_withbusiness</t>
+  </si>
+  <si>
+    <t>Total_emissions</t>
+  </si>
+  <si>
+    <t>emissions_reise</t>
+  </si>
+  <si>
+    <t>reisen_emissions_withbusiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression for long-distance emissions, including business travels: OLS (1) and Quantile Regression at 50th (2), 75th (3) and 90th (4) percentile. </t>
+  </si>
+  <si>
+    <t>plane_emissions_withbusiness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression for emissions from flying, including business travels: OLS (1) and Quantile Regression at 90th (2), 95th (3) and 99th (4) percentile.  </t>
   </si>
 </sst>
 </file>
@@ -420,21 +444,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="43.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -451,7 +475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -465,7 +489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -482,7 +506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -496,7 +520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -507,12 +531,12 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -524,12 +548,12 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -538,10 +562,52 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Mobility_data/Other_input/Table_Regressions_to_Run.xlsx
+++ b/Mobility_data/Other_input/Table_Regressions_to_Run.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
-    <t>Independant_variable</t>
-  </si>
-  <si>
     <t>add_control_bool</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t xml:space="preserve">Regression for emissions from flying, including business travels: OLS (1) and Quantile Regression at 90th (2), 95th (3) and 99th (4) percentile.  </t>
+  </si>
+  <si>
+    <t>Dependent_variable</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,154 +460,154 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Mobility_data/Other_input/Table_Regressions_to_Run.xlsx
+++ b/Mobility_data/Other_input/Table_Regressions_to_Run.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>add_control_bool</t>
   </si>
@@ -47,9 +47,6 @@
     <t>total_emissions</t>
   </si>
   <si>
-    <t>Total_emissions_wout_RW</t>
-  </si>
-  <si>
     <t>add_control</t>
   </si>
   <si>
@@ -59,18 +56,9 @@
     <t>Title_Table</t>
   </si>
   <si>
-    <t xml:space="preserve">Regression for long-distance emissions: OLS (1) and Quantile Regression at 50th (2), 75th (3) and 90th (4) percentile. </t>
-  </si>
-  <si>
-    <t>Regression for long-distance travels, when adding a control variables for the use of low-carbon transportation modes: OLS (1) and Quantile Regression at 50th (2), 75th (3) and 90th (4) percentile.</t>
-  </si>
-  <si>
     <t>reisen_emissions_control_frequency</t>
   </si>
   <si>
-    <t xml:space="preserve">Regression for total emissions: OLS (1) and Quantile Regression at 50th (2), 75th (3) and 90th (4) percentile. </t>
-  </si>
-  <si>
     <t>emissions_flugzeug</t>
   </si>
   <si>
@@ -89,15 +77,6 @@
     <t>total_emissions_control_satisfaction</t>
   </si>
   <si>
-    <t>Regression for total emissions, when adding a control variables for satisfaction with transportation modes: OLS (1) and Quantile Regression at 50th (2), 75th (3) and 90th (4) percentile.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regression for emissions from flying: OLS (1) and Quantile Regression at 90th (2), 95th (3) and 99th (4) percentile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regression for total emissions, including business travel: OLS (1) and Quantile Regression at 50th (2), 75th (3) and 90th (4) percentile. </t>
-  </si>
-  <si>
     <t>total_emissions_withbusiness</t>
   </si>
   <si>
@@ -110,16 +89,124 @@
     <t>reisen_emissions_withbusiness</t>
   </si>
   <si>
-    <t xml:space="preserve">Regression for long-distance emissions, including business travels: OLS (1) and Quantile Regression at 50th (2), 75th (3) and 90th (4) percentile. </t>
-  </si>
-  <si>
     <t>plane_emissions_withbusiness</t>
   </si>
   <si>
-    <t xml:space="preserve">Regression for emissions from flying, including business travels: OLS (1) and Quantile Regression at 90th (2), 95th (3) and 99th (4) percentile.  </t>
-  </si>
-  <si>
     <t>Dependent_variable</t>
+  </si>
+  <si>
+    <t>Total_emissions_wout_work</t>
+  </si>
+  <si>
+    <t>emissions_flugzeug_wout_work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression for long-distance emissions </t>
+  </si>
+  <si>
+    <t>Regression for long-distance travels, when adding a control variables for the use of low-carbon transportation modes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression for total emissions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression for emissions from flying. </t>
+  </si>
+  <si>
+    <t>Regression for total emissions, when adding a control variables for satisfaction with transportation modes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression for total emissions, including business travel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression for long-distance emissions, including business travels. </t>
+  </si>
+  <si>
+    <t>Regression for emissions from flying, including business travels.</t>
+  </si>
+  <si>
+    <t>To_run</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>NoNA</t>
+  </si>
+  <si>
+    <t>employment</t>
+  </si>
+  <si>
+    <t>total_emissions_fullsample</t>
+  </si>
+  <si>
+    <t>Regression on the full sample</t>
+  </si>
+  <si>
+    <t>noattitude</t>
+  </si>
+  <si>
+    <t>Regression for long-distance emissions, without attitudinal variables</t>
+  </si>
+  <si>
+    <t>Regression for total emissions, without attitudinal variables</t>
+  </si>
+  <si>
+    <t>Regression for emissions from flying, without attitudinal variables</t>
+  </si>
+  <si>
+    <t>plane_emissions_noattitude</t>
+  </si>
+  <si>
+    <t>total_emissions_noattitude</t>
+  </si>
+  <si>
+    <t>reisen_emissions_noattitude</t>
+  </si>
+  <si>
+    <t>Regression for long-distance emissions, without employment variable</t>
+  </si>
+  <si>
+    <t>Regression for total emissions, without employment variable</t>
+  </si>
+  <si>
+    <t>Regression for emissions from flying, without employment variable</t>
+  </si>
+  <si>
+    <t>reisen_emissions_noemployment</t>
+  </si>
+  <si>
+    <t>total_emissions_noemployment</t>
+  </si>
+  <si>
+    <t>plane_emissions_noemployment</t>
+  </si>
+  <si>
+    <t>wholesample</t>
+  </si>
+  <si>
+    <t>Regression for total emissions, with additional controls for spatial characteristics</t>
+  </si>
+  <si>
+    <t>spatial</t>
+  </si>
+  <si>
+    <t>total_emissions_spatial</t>
+  </si>
+  <si>
+    <t>total_emissions_nozeros</t>
+  </si>
+  <si>
+    <t>Regression for total emissions, removing all the zero observations</t>
+  </si>
+  <si>
+    <t>NoZeros</t>
+  </si>
+  <si>
+    <t>emissions_wege_wout_work</t>
+  </si>
+  <si>
+    <t>Regression for daily emissions</t>
   </si>
 </sst>
 </file>
@@ -444,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,26 +543,42 @@
     <col min="2" max="2" width="25.26953125" customWidth="1"/>
     <col min="3" max="3" width="18.81640625" customWidth="1"/>
     <col min="4" max="4" width="43.36328125" customWidth="1"/>
+    <col min="5" max="5" width="48.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -486,12 +589,27 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -500,114 +618,521 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Mobility_data/Other_input/Table_Regressions_to_Run.xlsx
+++ b/Mobility_data/Other_input/Table_Regressions_to_Run.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
   <si>
     <t>add_control_bool</t>
   </si>
@@ -207,6 +207,36 @@
   </si>
   <si>
     <t>Regression for daily emissions</t>
+  </si>
+  <si>
+    <t>daily_emissions</t>
+  </si>
+  <si>
+    <t>daily_emissions_noattitude</t>
+  </si>
+  <si>
+    <t>Regression for daily emissions, without attitudinal variables</t>
+  </si>
+  <si>
+    <t>Regression for daily emissions, with additional controls for spatial characteristics</t>
+  </si>
+  <si>
+    <t>daily_emissions_spatial</t>
+  </si>
+  <si>
+    <t>daily_emissions_withbusiness</t>
+  </si>
+  <si>
+    <t>emissions_wege</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression for daily emissions, including business travels. </t>
+  </si>
+  <si>
+    <t>daily_emissions_control_frequency</t>
+  </si>
+  <si>
+    <t>Regression for daily emissions, when adding a control variables for the use of low-carbon transportation modes</t>
   </si>
 </sst>
 </file>
@@ -531,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1110,6 +1140,9 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
       <c r="B20" t="s">
         <v>59</v>
       </c>
@@ -1132,6 +1165,125 @@
         <v>0</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>0</v>
       </c>
     </row>
